--- a/medicine/Médecine vétérinaire/École_nationale_des_services_vétérinaires/École_nationale_des_services_vétérinaires.xlsx
+++ b/medicine/Médecine vétérinaire/École_nationale_des_services_vétérinaires/École_nationale_des_services_vétérinaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cole_nationale_des_services_v%C3%A9t%C3%A9rinaires</t>
+          <t>École_nationale_des_services_vétérinaires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'École nationale des services vétérinaires (ENSV) a été créée en 1973 par l’État pour assurer la formation des vétérinaires fonctionnaires du ministère chargé de l’agriculture (inspecteurs de santé publique vétérinaire - ISPV). Elle s'est unie, le 1er janvier 2010, à l'École nationale vétérinaire de Lyon et à l'École nationale d'ingénieurs des travaux agricoles de Clermont-Ferrand en un nouvel établissement portant le nom de VetAgro Sup, Institut d'enseignement supérieur et de recherche en alimentation, santé animale, sciences agronomiques et de environnement.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cole_nationale_des_services_v%C3%A9t%C3%A9rinaires</t>
+          <t>École_nationale_des_services_vétérinaires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Campus</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’ENSV - implantée depuis 1994 sur le Campus de l’École nationale vétérinaire de Lyon (à Marcy-l'Étoile - dispose depuis 2008 d’un bâtiment sur ce site, financé par le  conseil régional de Rhône-Alpes, le Conseil général du Rhône, la Communauté Urbaine de Lyon et l’État. Ce bâtiment abrite un amphithéâtre de 50 places et 4 salles de conférences pour les besoins des divers enseignements et événements organisés par l’ENSV.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cole_nationale_des_services_v%C3%A9t%C3%A9rinaires</t>
+          <t>École_nationale_des_services_vétérinaires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>École d'application et formation diplômante</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La formation des inspecteurs de la santé publique vétérinaire, à leur recrutement, puis tout au long de leur carrière constitue le cœur de métier de l'ENSV. L'expertise de l'ENSV en la matière est reconnue internationalement et lui vaut depuis 2004 le statut de centre collaborateur de l’Organisation mondiale de la santé animale (OIE) pour la formation des vétérinaires officiels.
 La formation initiale des vétérinaires officiels à l'ENSV inclut le Certificat d'études approfondies vétérinaires en santé publique vétérinaire (CEAV-SPV), diplôme de spécialité de 3e cycle des écoles vétérinaires françaises ouvert plus largement aux candidats titulaires d'un diplôme de vétérinaire, ainsi que le Certificat d’études approfondies en science politique « analyse des politiques publiques de l’alimentation et gestion des risques sanitaires » (CEA-PAGERS) délivré en partenariat avec l’Institut d'études politiques de Lyon.
